--- a/RBD - Dummy/MP_StockingPoints.xlsx
+++ b/RBD - Dummy/MP_StockingPoints.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="339">
   <si>
     <t>CurrencyID</t>
   </si>
@@ -460,6 +460,12 @@
     <t>ABUJA (NIGERIA)</t>
   </si>
   <si>
+    <t>AD DAMMAM (SAUDI ARABIA)</t>
+  </si>
+  <si>
+    <t>SAUDI ARABIA</t>
+  </si>
+  <si>
     <t>ANTWERP (BELGIUM)</t>
   </si>
   <si>
@@ -511,6 +517,9 @@
     <t>CHADAKORI (NIGER)</t>
   </si>
   <si>
+    <t>COKI (SENEGAL)</t>
+  </si>
+  <si>
     <t>DAKOUMA (NIGER)</t>
   </si>
   <si>
@@ -769,6 +778,9 @@
     <t>ROUEN (FRANCE)</t>
   </si>
   <si>
+    <t>SACLEPEA (LIBERIA)</t>
+  </si>
+  <si>
     <t>SAFO (MALI)</t>
   </si>
   <si>
@@ -874,12 +886,18 @@
     <t>Virtual Warehouse [CHINA]</t>
   </si>
   <si>
+    <t>Virtual Warehouse [CONGO (BRAZZAV)]</t>
+  </si>
+  <si>
     <t>Virtual Warehouse [CÔTE D'IVOIRE]</t>
   </si>
   <si>
     <t>Virtual Warehouse [DJIBOUTI]</t>
   </si>
   <si>
+    <t>Virtual Warehouse [EGYPT]</t>
+  </si>
+  <si>
     <t>Virtual Warehouse [ETHIOPIA]</t>
   </si>
   <si>
@@ -994,6 +1012,9 @@
     <t>Virtual Warehouse [TOGO]</t>
   </si>
   <si>
+    <t>Virtual Warehouse [TUNISIA]</t>
+  </si>
+  <si>
     <t>Virtual Warehouse [TURKEY]</t>
   </si>
   <si>
@@ -1007,6 +1028,9 @@
   </si>
   <si>
     <t>Virtual Warehouse [VIETNAM]</t>
+  </si>
+  <si>
+    <t>Virtual Warehouse [SAUDI ARABIA]</t>
   </si>
 </sst>
 </file>
@@ -1343,7 +1367,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P259"/>
+  <dimension ref="A1:P266"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="O1" sqref="O1"/>
@@ -5645,7 +5669,7 @@
         <v>1</v>
       </c>
       <c r="M104" t="s">
-        <v>53</v>
+        <v>151</v>
       </c>
       <c r="N104" t="s">
         <v>21</v>
@@ -5672,20 +5696,20 @@
         <v>146</v>
       </c>
       <c r="H105" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="I105" t="s">
         <v>19</v>
       </c>
       <c r="J105" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K105" t="s"/>
       <c r="L105" s="2" t="n">
         <v>1</v>
       </c>
       <c r="M105" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="N105" t="s">
         <v>21</v>
@@ -5712,20 +5736,20 @@
         <v>146</v>
       </c>
       <c r="H106" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="I106" t="s">
         <v>19</v>
       </c>
       <c r="J106" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K106" t="s"/>
       <c r="L106" s="2" t="n">
         <v>1</v>
       </c>
       <c r="M106" t="s">
-        <v>153</v>
+        <v>59</v>
       </c>
       <c r="N106" t="s">
         <v>21</v>
@@ -5805,7 +5829,7 @@
         <v>1</v>
       </c>
       <c r="M108" t="s">
-        <v>32</v>
+        <v>157</v>
       </c>
       <c r="N108" t="s">
         <v>21</v>
@@ -5832,20 +5856,20 @@
         <v>146</v>
       </c>
       <c r="H109" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I109" t="s">
         <v>19</v>
       </c>
       <c r="J109" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K109" t="s"/>
       <c r="L109" s="2" t="n">
         <v>1</v>
       </c>
       <c r="M109" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="N109" t="s">
         <v>21</v>
@@ -5872,20 +5896,20 @@
         <v>146</v>
       </c>
       <c r="H110" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="I110" t="s">
         <v>19</v>
       </c>
       <c r="J110" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K110" t="s"/>
       <c r="L110" s="2" t="n">
         <v>1</v>
       </c>
       <c r="M110" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="N110" t="s">
         <v>21</v>
@@ -5912,20 +5936,20 @@
         <v>146</v>
       </c>
       <c r="H111" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="I111" t="s">
         <v>19</v>
       </c>
       <c r="J111" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K111" t="s"/>
       <c r="L111" s="2" t="n">
         <v>1</v>
       </c>
       <c r="M111" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="N111" t="s">
         <v>21</v>
@@ -5952,20 +5976,20 @@
         <v>146</v>
       </c>
       <c r="H112" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="I112" t="s">
         <v>19</v>
       </c>
       <c r="J112" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K112" t="s"/>
       <c r="L112" s="2" t="n">
         <v>1</v>
       </c>
       <c r="M112" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="N112" t="s">
         <v>21</v>
@@ -5992,20 +6016,20 @@
         <v>146</v>
       </c>
       <c r="H113" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I113" t="s">
         <v>19</v>
       </c>
       <c r="J113" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K113" t="s"/>
       <c r="L113" s="2" t="n">
         <v>1</v>
       </c>
       <c r="M113" t="s">
-        <v>162</v>
+        <v>32</v>
       </c>
       <c r="N113" t="s">
         <v>21</v>
@@ -6045,7 +6069,7 @@
         <v>1</v>
       </c>
       <c r="M114" t="s">
-        <v>41</v>
+        <v>164</v>
       </c>
       <c r="N114" t="s">
         <v>21</v>
@@ -6072,20 +6096,20 @@
         <v>146</v>
       </c>
       <c r="H115" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="I115" t="s">
         <v>19</v>
       </c>
       <c r="J115" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K115" t="s"/>
       <c r="L115" s="2" t="n">
         <v>1</v>
       </c>
       <c r="M115" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="N115" t="s">
         <v>21</v>
@@ -6112,13 +6136,13 @@
         <v>146</v>
       </c>
       <c r="H116" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I116" t="s">
         <v>19</v>
       </c>
       <c r="J116" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K116" t="s"/>
       <c r="L116" s="2" t="n">
@@ -6152,20 +6176,20 @@
         <v>146</v>
       </c>
       <c r="H117" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="I117" t="s">
         <v>19</v>
       </c>
       <c r="J117" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K117" t="s"/>
       <c r="L117" s="2" t="n">
         <v>1</v>
       </c>
       <c r="M117" t="s">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="N117" t="s">
         <v>21</v>
@@ -6192,20 +6216,20 @@
         <v>146</v>
       </c>
       <c r="H118" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="I118" t="s">
         <v>19</v>
       </c>
       <c r="J118" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K118" t="s"/>
       <c r="L118" s="2" t="n">
         <v>1</v>
       </c>
       <c r="M118" t="s">
-        <v>168</v>
+        <v>59</v>
       </c>
       <c r="N118" t="s">
         <v>21</v>
@@ -6245,7 +6269,7 @@
         <v>1</v>
       </c>
       <c r="M119" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="N119" t="s">
         <v>21</v>
@@ -6285,7 +6309,7 @@
         <v>1</v>
       </c>
       <c r="M120" t="s">
-        <v>20</v>
+        <v>171</v>
       </c>
       <c r="N120" t="s">
         <v>21</v>
@@ -6312,20 +6336,20 @@
         <v>146</v>
       </c>
       <c r="H121" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I121" t="s">
         <v>19</v>
       </c>
       <c r="J121" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K121" t="s"/>
       <c r="L121" s="2" t="n">
         <v>1</v>
       </c>
       <c r="M121" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="N121" t="s">
         <v>21</v>
@@ -6352,20 +6376,20 @@
         <v>146</v>
       </c>
       <c r="H122" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="I122" t="s">
         <v>19</v>
       </c>
       <c r="J122" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K122" t="s"/>
       <c r="L122" s="2" t="n">
         <v>1</v>
       </c>
       <c r="M122" t="s">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="N122" t="s">
         <v>21</v>
@@ -6405,7 +6429,7 @@
         <v>1</v>
       </c>
       <c r="M123" t="s">
-        <v>175</v>
+        <v>26</v>
       </c>
       <c r="N123" t="s">
         <v>21</v>
@@ -6432,20 +6456,20 @@
         <v>146</v>
       </c>
       <c r="H124" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I124" t="s">
         <v>19</v>
       </c>
       <c r="J124" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K124" t="s"/>
       <c r="L124" s="2" t="n">
         <v>1</v>
       </c>
       <c r="M124" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="N124" t="s">
         <v>21</v>
@@ -6485,7 +6509,7 @@
         <v>1</v>
       </c>
       <c r="M125" t="s">
-        <v>41</v>
+        <v>178</v>
       </c>
       <c r="N125" t="s">
         <v>21</v>
@@ -6512,13 +6536,13 @@
         <v>146</v>
       </c>
       <c r="H126" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="I126" t="s">
         <v>19</v>
       </c>
       <c r="J126" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K126" t="s"/>
       <c r="L126" s="2" t="n">
@@ -6552,20 +6576,20 @@
         <v>146</v>
       </c>
       <c r="H127" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I127" t="s">
         <v>19</v>
       </c>
       <c r="J127" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K127" t="s"/>
       <c r="L127" s="2" t="n">
         <v>1</v>
       </c>
       <c r="M127" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="N127" t="s">
         <v>21</v>
@@ -6592,20 +6616,20 @@
         <v>146</v>
       </c>
       <c r="H128" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I128" t="s">
         <v>19</v>
       </c>
       <c r="J128" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K128" t="s"/>
       <c r="L128" s="2" t="n">
         <v>1</v>
       </c>
       <c r="M128" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="N128" t="s">
         <v>21</v>
@@ -6632,20 +6656,20 @@
         <v>146</v>
       </c>
       <c r="H129" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I129" t="s">
         <v>19</v>
       </c>
       <c r="J129" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K129" t="s"/>
       <c r="L129" s="2" t="n">
         <v>1</v>
       </c>
       <c r="M129" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="N129" t="s">
         <v>21</v>
@@ -6672,20 +6696,20 @@
         <v>146</v>
       </c>
       <c r="H130" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I130" t="s">
         <v>19</v>
       </c>
       <c r="J130" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K130" t="s"/>
       <c r="L130" s="2" t="n">
         <v>1</v>
       </c>
       <c r="M130" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="N130" t="s">
         <v>21</v>
@@ -6712,13 +6736,13 @@
         <v>146</v>
       </c>
       <c r="H131" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I131" t="s">
         <v>19</v>
       </c>
       <c r="J131" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K131" t="s"/>
       <c r="L131" s="2" t="n">
@@ -6752,20 +6776,20 @@
         <v>146</v>
       </c>
       <c r="H132" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I132" t="s">
         <v>19</v>
       </c>
       <c r="J132" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K132" t="s"/>
       <c r="L132" s="2" t="n">
         <v>1</v>
       </c>
       <c r="M132" t="s">
-        <v>185</v>
+        <v>44</v>
       </c>
       <c r="N132" t="s">
         <v>21</v>
@@ -6885,7 +6909,7 @@
         <v>1</v>
       </c>
       <c r="M135" t="s">
-        <v>190</v>
+        <v>59</v>
       </c>
       <c r="N135" t="s">
         <v>21</v>
@@ -6912,20 +6936,20 @@
         <v>146</v>
       </c>
       <c r="H136" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I136" t="s">
         <v>19</v>
       </c>
       <c r="J136" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K136" t="s"/>
       <c r="L136" s="2" t="n">
         <v>1</v>
       </c>
       <c r="M136" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="N136" t="s">
         <v>21</v>
@@ -7005,7 +7029,7 @@
         <v>1</v>
       </c>
       <c r="M138" t="s">
-        <v>41</v>
+        <v>176</v>
       </c>
       <c r="N138" t="s">
         <v>21</v>
@@ -7045,7 +7069,7 @@
         <v>1</v>
       </c>
       <c r="M139" t="s">
-        <v>44</v>
+        <v>196</v>
       </c>
       <c r="N139" t="s">
         <v>21</v>
@@ -7072,20 +7096,20 @@
         <v>146</v>
       </c>
       <c r="H140" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="I140" t="s">
         <v>19</v>
       </c>
       <c r="J140" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K140" t="s"/>
       <c r="L140" s="2" t="n">
         <v>1</v>
       </c>
       <c r="M140" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="N140" t="s">
         <v>21</v>
@@ -7112,20 +7136,20 @@
         <v>146</v>
       </c>
       <c r="H141" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="I141" t="s">
         <v>19</v>
       </c>
       <c r="J141" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K141" t="s"/>
       <c r="L141" s="2" t="n">
         <v>1</v>
       </c>
       <c r="M141" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="N141" t="s">
         <v>21</v>
@@ -7152,20 +7176,20 @@
         <v>146</v>
       </c>
       <c r="H142" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="I142" t="s">
         <v>19</v>
       </c>
       <c r="J142" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K142" t="s"/>
       <c r="L142" s="2" t="n">
         <v>1</v>
       </c>
       <c r="M142" t="s">
-        <v>199</v>
+        <v>62</v>
       </c>
       <c r="N142" t="s">
         <v>21</v>
@@ -7205,7 +7229,7 @@
         <v>1</v>
       </c>
       <c r="M143" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="N143" t="s">
         <v>21</v>
@@ -7245,7 +7269,7 @@
         <v>1</v>
       </c>
       <c r="M144" t="s">
-        <v>68</v>
+        <v>202</v>
       </c>
       <c r="N144" t="s">
         <v>21</v>
@@ -7272,20 +7296,20 @@
         <v>146</v>
       </c>
       <c r="H145" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I145" t="s">
         <v>19</v>
       </c>
       <c r="J145" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K145" t="s"/>
       <c r="L145" s="2" t="n">
         <v>1</v>
       </c>
       <c r="M145" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="N145" t="s">
         <v>21</v>
@@ -7312,20 +7336,20 @@
         <v>146</v>
       </c>
       <c r="H146" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="I146" t="s">
         <v>19</v>
       </c>
       <c r="J146" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K146" t="s"/>
       <c r="L146" s="2" t="n">
         <v>1</v>
       </c>
       <c r="M146" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="N146" t="s">
         <v>21</v>
@@ -7352,20 +7376,20 @@
         <v>146</v>
       </c>
       <c r="H147" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I147" t="s">
         <v>19</v>
       </c>
       <c r="J147" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K147" t="s"/>
       <c r="L147" s="2" t="n">
         <v>1</v>
       </c>
       <c r="M147" t="s">
-        <v>205</v>
+        <v>68</v>
       </c>
       <c r="N147" t="s">
         <v>21</v>
@@ -7445,7 +7469,7 @@
         <v>1</v>
       </c>
       <c r="M149" t="s">
-        <v>20</v>
+        <v>208</v>
       </c>
       <c r="N149" t="s">
         <v>21</v>
@@ -7472,13 +7496,13 @@
         <v>146</v>
       </c>
       <c r="H150" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="I150" t="s">
         <v>19</v>
       </c>
       <c r="J150" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K150" t="s"/>
       <c r="L150" s="2" t="n">
@@ -7512,20 +7536,20 @@
         <v>146</v>
       </c>
       <c r="H151" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="I151" t="s">
         <v>19</v>
       </c>
       <c r="J151" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K151" t="s"/>
       <c r="L151" s="2" t="n">
         <v>1</v>
       </c>
       <c r="M151" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="N151" t="s">
         <v>21</v>
@@ -7552,13 +7576,13 @@
         <v>146</v>
       </c>
       <c r="H152" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I152" t="s">
         <v>19</v>
       </c>
       <c r="J152" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="K152" t="s"/>
       <c r="L152" s="2" t="n">
@@ -7592,20 +7616,20 @@
         <v>146</v>
       </c>
       <c r="H153" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="I153" t="s">
         <v>19</v>
       </c>
       <c r="J153" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K153" t="s"/>
       <c r="L153" s="2" t="n">
         <v>1</v>
       </c>
       <c r="M153" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="N153" t="s">
         <v>21</v>
@@ -7632,20 +7656,20 @@
         <v>146</v>
       </c>
       <c r="H154" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I154" t="s">
         <v>19</v>
       </c>
       <c r="J154" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K154" t="s"/>
       <c r="L154" s="2" t="n">
         <v>1</v>
       </c>
       <c r="M154" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="N154" t="s">
         <v>21</v>
@@ -7672,20 +7696,20 @@
         <v>146</v>
       </c>
       <c r="H155" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="I155" t="s">
         <v>19</v>
       </c>
       <c r="J155" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="K155" t="s"/>
       <c r="L155" s="2" t="n">
         <v>1</v>
       </c>
       <c r="M155" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="N155" t="s">
         <v>21</v>
@@ -7712,20 +7736,20 @@
         <v>146</v>
       </c>
       <c r="H156" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="I156" t="s">
         <v>19</v>
       </c>
       <c r="J156" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K156" t="s"/>
       <c r="L156" s="2" t="n">
         <v>1</v>
       </c>
       <c r="M156" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="N156" t="s">
         <v>21</v>
@@ -7752,13 +7776,13 @@
         <v>146</v>
       </c>
       <c r="H157" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="I157" t="s">
         <v>19</v>
       </c>
       <c r="J157" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K157" t="s"/>
       <c r="L157" s="2" t="n">
@@ -7792,20 +7816,20 @@
         <v>146</v>
       </c>
       <c r="H158" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="I158" t="s">
         <v>19</v>
       </c>
       <c r="J158" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="K158" t="s"/>
       <c r="L158" s="2" t="n">
         <v>1</v>
       </c>
       <c r="M158" t="s">
-        <v>190</v>
+        <v>29</v>
       </c>
       <c r="N158" t="s">
         <v>21</v>
@@ -7832,13 +7856,13 @@
         <v>146</v>
       </c>
       <c r="H159" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="I159" t="s">
         <v>19</v>
       </c>
       <c r="J159" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="K159" t="s"/>
       <c r="L159" s="2" t="n">
@@ -7872,20 +7896,20 @@
         <v>146</v>
       </c>
       <c r="H160" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I160" t="s">
         <v>19</v>
       </c>
       <c r="J160" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="K160" t="s"/>
       <c r="L160" s="2" t="n">
         <v>1</v>
       </c>
       <c r="M160" t="s">
-        <v>59</v>
+        <v>193</v>
       </c>
       <c r="N160" t="s">
         <v>21</v>
@@ -7912,20 +7936,20 @@
         <v>146</v>
       </c>
       <c r="H161" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I161" t="s">
         <v>19</v>
       </c>
       <c r="J161" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K161" t="s"/>
       <c r="L161" s="2" t="n">
         <v>1</v>
       </c>
       <c r="M161" t="s">
-        <v>220</v>
+        <v>59</v>
       </c>
       <c r="N161" t="s">
         <v>21</v>
@@ -7965,7 +7989,7 @@
         <v>1</v>
       </c>
       <c r="M162" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="N162" t="s">
         <v>21</v>
@@ -8005,7 +8029,7 @@
         <v>1</v>
       </c>
       <c r="M163" t="s">
-        <v>35</v>
+        <v>223</v>
       </c>
       <c r="N163" t="s">
         <v>21</v>
@@ -8032,20 +8056,20 @@
         <v>146</v>
       </c>
       <c r="H164" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I164" t="s">
         <v>19</v>
       </c>
       <c r="J164" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="K164" t="s"/>
       <c r="L164" s="2" t="n">
         <v>1</v>
       </c>
       <c r="M164" t="s">
-        <v>193</v>
+        <v>53</v>
       </c>
       <c r="N164" t="s">
         <v>21</v>
@@ -8072,20 +8096,20 @@
         <v>146</v>
       </c>
       <c r="H165" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="I165" t="s">
         <v>19</v>
       </c>
       <c r="J165" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K165" t="s"/>
       <c r="L165" s="2" t="n">
         <v>1</v>
       </c>
       <c r="M165" t="s">
-        <v>193</v>
+        <v>35</v>
       </c>
       <c r="N165" t="s">
         <v>21</v>
@@ -8112,20 +8136,20 @@
         <v>146</v>
       </c>
       <c r="H166" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="I166" t="s">
         <v>19</v>
       </c>
       <c r="J166" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K166" t="s"/>
       <c r="L166" s="2" t="n">
         <v>1</v>
       </c>
       <c r="M166" t="s">
-        <v>226</v>
+        <v>196</v>
       </c>
       <c r="N166" t="s">
         <v>21</v>
@@ -8165,7 +8189,7 @@
         <v>1</v>
       </c>
       <c r="M167" t="s">
-        <v>62</v>
+        <v>196</v>
       </c>
       <c r="N167" t="s">
         <v>21</v>
@@ -8205,7 +8229,7 @@
         <v>1</v>
       </c>
       <c r="M168" t="s">
-        <v>20</v>
+        <v>229</v>
       </c>
       <c r="N168" t="s">
         <v>21</v>
@@ -8232,20 +8256,20 @@
         <v>146</v>
       </c>
       <c r="H169" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="I169" t="s">
         <v>19</v>
       </c>
       <c r="J169" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="K169" t="s"/>
       <c r="L169" s="2" t="n">
         <v>1</v>
       </c>
       <c r="M169" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="N169" t="s">
         <v>21</v>
@@ -8272,20 +8296,20 @@
         <v>146</v>
       </c>
       <c r="H170" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I170" t="s">
         <v>19</v>
       </c>
       <c r="J170" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K170" t="s"/>
       <c r="L170" s="2" t="n">
         <v>1</v>
       </c>
       <c r="M170" t="s">
-        <v>231</v>
+        <v>20</v>
       </c>
       <c r="N170" t="s">
         <v>21</v>
@@ -8325,7 +8349,7 @@
         <v>1</v>
       </c>
       <c r="M171" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="N171" t="s">
         <v>21</v>
@@ -8365,7 +8389,7 @@
         <v>1</v>
       </c>
       <c r="M172" t="s">
-        <v>59</v>
+        <v>234</v>
       </c>
       <c r="N172" t="s">
         <v>21</v>
@@ -8392,20 +8416,20 @@
         <v>146</v>
       </c>
       <c r="H173" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="I173" t="s">
         <v>19</v>
       </c>
       <c r="J173" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K173" t="s"/>
       <c r="L173" s="2" t="n">
         <v>1</v>
       </c>
       <c r="M173" t="s">
-        <v>235</v>
+        <v>29</v>
       </c>
       <c r="N173" t="s">
         <v>21</v>
@@ -8445,7 +8469,7 @@
         <v>1</v>
       </c>
       <c r="M174" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="N174" t="s">
         <v>21</v>
@@ -8485,7 +8509,7 @@
         <v>1</v>
       </c>
       <c r="M175" t="s">
-        <v>26</v>
+        <v>238</v>
       </c>
       <c r="N175" t="s">
         <v>21</v>
@@ -8512,20 +8536,20 @@
         <v>146</v>
       </c>
       <c r="H176" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I176" t="s">
         <v>19</v>
       </c>
       <c r="J176" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K176" t="s"/>
       <c r="L176" s="2" t="n">
         <v>1</v>
       </c>
       <c r="M176" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="N176" t="s">
         <v>21</v>
@@ -8552,20 +8576,20 @@
         <v>146</v>
       </c>
       <c r="H177" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="I177" t="s">
         <v>19</v>
       </c>
       <c r="J177" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K177" t="s"/>
       <c r="L177" s="2" t="n">
         <v>1</v>
       </c>
       <c r="M177" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="N177" t="s">
         <v>21</v>
@@ -8592,20 +8616,20 @@
         <v>146</v>
       </c>
       <c r="H178" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I178" t="s">
         <v>19</v>
       </c>
       <c r="J178" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K178" t="s"/>
       <c r="L178" s="2" t="n">
         <v>1</v>
       </c>
       <c r="M178" t="s">
-        <v>241</v>
+        <v>32</v>
       </c>
       <c r="N178" t="s">
         <v>21</v>
@@ -8645,7 +8669,7 @@
         <v>1</v>
       </c>
       <c r="M179" t="s">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="N179" t="s">
         <v>21</v>
@@ -8685,7 +8709,7 @@
         <v>1</v>
       </c>
       <c r="M180" t="s">
-        <v>199</v>
+        <v>244</v>
       </c>
       <c r="N180" t="s">
         <v>21</v>
@@ -8712,20 +8736,20 @@
         <v>146</v>
       </c>
       <c r="H181" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="I181" t="s">
         <v>19</v>
       </c>
       <c r="J181" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="K181" t="s"/>
       <c r="L181" s="2" t="n">
         <v>1</v>
       </c>
       <c r="M181" t="s">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="N181" t="s">
         <v>21</v>
@@ -8752,20 +8776,20 @@
         <v>146</v>
       </c>
       <c r="H182" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="I182" t="s">
         <v>19</v>
       </c>
       <c r="J182" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="K182" t="s"/>
       <c r="L182" s="2" t="n">
         <v>1</v>
       </c>
       <c r="M182" t="s">
-        <v>246</v>
+        <v>202</v>
       </c>
       <c r="N182" t="s">
         <v>21</v>
@@ -8805,7 +8829,7 @@
         <v>1</v>
       </c>
       <c r="M183" t="s">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="N183" t="s">
         <v>21</v>
@@ -8885,7 +8909,7 @@
         <v>1</v>
       </c>
       <c r="M185" t="s">
-        <v>205</v>
+        <v>68</v>
       </c>
       <c r="N185" t="s">
         <v>21</v>
@@ -8925,7 +8949,7 @@
         <v>1</v>
       </c>
       <c r="M186" t="s">
-        <v>53</v>
+        <v>252</v>
       </c>
       <c r="N186" t="s">
         <v>21</v>
@@ -8952,20 +8976,20 @@
         <v>146</v>
       </c>
       <c r="H187" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I187" t="s">
         <v>19</v>
       </c>
       <c r="J187" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="K187" t="s"/>
       <c r="L187" s="2" t="n">
         <v>1</v>
       </c>
       <c r="M187" t="s">
-        <v>68</v>
+        <v>208</v>
       </c>
       <c r="N187" t="s">
         <v>21</v>
@@ -8992,20 +9016,20 @@
         <v>146</v>
       </c>
       <c r="H188" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="I188" t="s">
         <v>19</v>
       </c>
       <c r="J188" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="K188" t="s"/>
       <c r="L188" s="2" t="n">
         <v>1</v>
       </c>
       <c r="M188" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="N188" t="s">
         <v>21</v>
@@ -9032,20 +9056,20 @@
         <v>146</v>
       </c>
       <c r="H189" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="I189" t="s">
         <v>19</v>
       </c>
       <c r="J189" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="K189" t="s"/>
       <c r="L189" s="2" t="n">
         <v>1</v>
       </c>
       <c r="M189" t="s">
-        <v>155</v>
+        <v>53</v>
       </c>
       <c r="N189" t="s">
         <v>21</v>
@@ -9072,20 +9096,20 @@
         <v>146</v>
       </c>
       <c r="H190" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="I190" t="s">
         <v>19</v>
       </c>
       <c r="J190" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K190" t="s"/>
       <c r="L190" s="2" t="n">
         <v>1</v>
       </c>
       <c r="M190" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="N190" t="s">
         <v>21</v>
@@ -9112,20 +9136,20 @@
         <v>146</v>
       </c>
       <c r="H191" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="I191" t="s">
         <v>19</v>
       </c>
       <c r="J191" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K191" t="s"/>
       <c r="L191" s="2" t="n">
         <v>1</v>
       </c>
       <c r="M191" t="s">
-        <v>257</v>
+        <v>59</v>
       </c>
       <c r="N191" t="s">
         <v>21</v>
@@ -9165,7 +9189,7 @@
         <v>1</v>
       </c>
       <c r="M192" t="s">
-        <v>259</v>
+        <v>157</v>
       </c>
       <c r="N192" t="s">
         <v>21</v>
@@ -9192,13 +9216,13 @@
         <v>146</v>
       </c>
       <c r="H193" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I193" t="s">
         <v>19</v>
       </c>
       <c r="J193" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K193" t="s"/>
       <c r="L193" s="2" t="n">
@@ -9232,20 +9256,20 @@
         <v>146</v>
       </c>
       <c r="H194" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I194" t="s">
         <v>19</v>
       </c>
       <c r="J194" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K194" t="s"/>
       <c r="L194" s="2" t="n">
         <v>1</v>
       </c>
       <c r="M194" t="s">
-        <v>59</v>
+        <v>261</v>
       </c>
       <c r="N194" t="s">
         <v>21</v>
@@ -9285,7 +9309,7 @@
         <v>1</v>
       </c>
       <c r="M195" t="s">
-        <v>190</v>
+        <v>263</v>
       </c>
       <c r="N195" t="s">
         <v>21</v>
@@ -9312,13 +9336,13 @@
         <v>146</v>
       </c>
       <c r="H196" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I196" t="s">
         <v>19</v>
       </c>
       <c r="J196" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="K196" t="s"/>
       <c r="L196" s="2" t="n">
@@ -9352,20 +9376,20 @@
         <v>146</v>
       </c>
       <c r="H197" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="I197" t="s">
         <v>19</v>
       </c>
       <c r="J197" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K197" t="s"/>
       <c r="L197" s="2" t="n">
         <v>1</v>
       </c>
       <c r="M197" t="s">
-        <v>265</v>
+        <v>59</v>
       </c>
       <c r="N197" t="s">
         <v>21</v>
@@ -9405,7 +9429,7 @@
         <v>1</v>
       </c>
       <c r="M198" t="s">
-        <v>267</v>
+        <v>193</v>
       </c>
       <c r="N198" t="s">
         <v>21</v>
@@ -9432,20 +9456,20 @@
         <v>146</v>
       </c>
       <c r="H199" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I199" t="s">
         <v>19</v>
       </c>
       <c r="J199" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K199" t="s"/>
       <c r="L199" s="2" t="n">
         <v>1</v>
       </c>
       <c r="M199" t="s">
-        <v>226</v>
+        <v>59</v>
       </c>
       <c r="N199" t="s">
         <v>21</v>
@@ -9472,20 +9496,20 @@
         <v>146</v>
       </c>
       <c r="H200" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I200" t="s">
         <v>19</v>
       </c>
       <c r="J200" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K200" t="s"/>
       <c r="L200" s="2" t="n">
         <v>1</v>
       </c>
       <c r="M200" t="s">
-        <v>59</v>
+        <v>269</v>
       </c>
       <c r="N200" t="s">
         <v>21</v>
@@ -9509,22 +9533,24 @@
       <c r="E201" t="s"/>
       <c r="F201" t="s"/>
       <c r="G201" t="s">
+        <v>146</v>
+      </c>
+      <c r="H201" t="s">
         <v>270</v>
       </c>
-      <c r="H201" t="s">
-        <v>271</v>
-      </c>
       <c r="I201" t="s">
         <v>19</v>
       </c>
       <c r="J201" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K201" t="s"/>
       <c r="L201" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="M201" t="s"/>
+      <c r="M201" t="s">
+        <v>271</v>
+      </c>
       <c r="N201" t="s">
         <v>21</v>
       </c>
@@ -9546,12 +9572,14 @@
       <c r="D202" t="s"/>
       <c r="E202" t="s"/>
       <c r="F202" t="s"/>
-      <c r="G202" t="s"/>
+      <c r="G202" t="s">
+        <v>146</v>
+      </c>
       <c r="H202" t="s">
         <v>272</v>
       </c>
       <c r="I202" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J202" t="s">
         <v>272</v>
@@ -9560,16 +9588,16 @@
       <c r="L202" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="M202" t="s"/>
+      <c r="M202" t="s">
+        <v>229</v>
+      </c>
       <c r="N202" t="s">
         <v>21</v>
       </c>
       <c r="O202" t="s">
-        <v>19</v>
-      </c>
-      <c r="P202" t="s">
-        <v>273</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="P202" t="s"/>
     </row>
     <row r="203" spans="1:16">
       <c r="A203" t="s">
@@ -9584,30 +9612,32 @@
       <c r="D203" t="s"/>
       <c r="E203" t="s"/>
       <c r="F203" t="s"/>
-      <c r="G203" t="s"/>
+      <c r="G203" t="s">
+        <v>146</v>
+      </c>
       <c r="H203" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I203" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J203" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K203" t="s"/>
       <c r="L203" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="M203" t="s"/>
+      <c r="M203" t="s">
+        <v>59</v>
+      </c>
       <c r="N203" t="s">
         <v>21</v>
       </c>
       <c r="O203" t="s">
-        <v>19</v>
-      </c>
-      <c r="P203" t="s">
-        <v>273</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="P203" t="s"/>
     </row>
     <row r="204" spans="1:16">
       <c r="A204" t="s">
@@ -9622,12 +9652,14 @@
       <c r="D204" t="s"/>
       <c r="E204" t="s"/>
       <c r="F204" t="s"/>
-      <c r="G204" t="s"/>
+      <c r="G204" t="s">
+        <v>274</v>
+      </c>
       <c r="H204" t="s">
         <v>275</v>
       </c>
       <c r="I204" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J204" t="s">
         <v>275</v>
@@ -9641,11 +9673,9 @@
         <v>21</v>
       </c>
       <c r="O204" t="s">
-        <v>19</v>
-      </c>
-      <c r="P204" t="s">
-        <v>273</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="P204" t="s"/>
     </row>
     <row r="205" spans="1:16">
       <c r="A205" t="s">
@@ -9682,7 +9712,7 @@
         <v>19</v>
       </c>
       <c r="P205" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="206" spans="1:16">
@@ -9700,13 +9730,13 @@
       <c r="F206" t="s"/>
       <c r="G206" t="s"/>
       <c r="H206" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="I206" t="s">
         <v>22</v>
       </c>
       <c r="J206" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="K206" t="s"/>
       <c r="L206" s="2" t="n">
@@ -9720,7 +9750,7 @@
         <v>19</v>
       </c>
       <c r="P206" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="207" spans="1:16">
@@ -9738,13 +9768,13 @@
       <c r="F207" t="s"/>
       <c r="G207" t="s"/>
       <c r="H207" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="I207" t="s">
         <v>22</v>
       </c>
       <c r="J207" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="K207" t="s"/>
       <c r="L207" s="2" t="n">
@@ -9758,7 +9788,7 @@
         <v>19</v>
       </c>
       <c r="P207" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="208" spans="1:16">
@@ -9776,13 +9806,13 @@
       <c r="F208" t="s"/>
       <c r="G208" t="s"/>
       <c r="H208" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I208" t="s">
         <v>22</v>
       </c>
       <c r="J208" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="K208" t="s"/>
       <c r="L208" s="2" t="n">
@@ -9796,7 +9826,7 @@
         <v>19</v>
       </c>
       <c r="P208" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="209" spans="1:16">
@@ -9814,13 +9844,13 @@
       <c r="F209" t="s"/>
       <c r="G209" t="s"/>
       <c r="H209" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="I209" t="s">
         <v>22</v>
       </c>
       <c r="J209" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="K209" t="s"/>
       <c r="L209" s="2" t="n">
@@ -9834,7 +9864,7 @@
         <v>19</v>
       </c>
       <c r="P209" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="210" spans="1:16">
@@ -9852,13 +9882,13 @@
       <c r="F210" t="s"/>
       <c r="G210" t="s"/>
       <c r="H210" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="I210" t="s">
         <v>22</v>
       </c>
       <c r="J210" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K210" t="s"/>
       <c r="L210" s="2" t="n">
@@ -9872,7 +9902,7 @@
         <v>19</v>
       </c>
       <c r="P210" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="211" spans="1:16">
@@ -9890,13 +9920,13 @@
       <c r="F211" t="s"/>
       <c r="G211" t="s"/>
       <c r="H211" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="I211" t="s">
         <v>22</v>
       </c>
       <c r="J211" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K211" t="s"/>
       <c r="L211" s="2" t="n">
@@ -9910,7 +9940,7 @@
         <v>19</v>
       </c>
       <c r="P211" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="212" spans="1:16">
@@ -9928,13 +9958,13 @@
       <c r="F212" t="s"/>
       <c r="G212" t="s"/>
       <c r="H212" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="I212" t="s">
         <v>22</v>
       </c>
       <c r="J212" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="K212" t="s"/>
       <c r="L212" s="2" t="n">
@@ -9948,7 +9978,7 @@
         <v>19</v>
       </c>
       <c r="P212" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="213" spans="1:16">
@@ -9966,13 +9996,13 @@
       <c r="F213" t="s"/>
       <c r="G213" t="s"/>
       <c r="H213" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="I213" t="s">
         <v>22</v>
       </c>
       <c r="J213" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="K213" t="s"/>
       <c r="L213" s="2" t="n">
@@ -9986,7 +10016,7 @@
         <v>19</v>
       </c>
       <c r="P213" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="214" spans="1:16">
@@ -10004,13 +10034,13 @@
       <c r="F214" t="s"/>
       <c r="G214" t="s"/>
       <c r="H214" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="I214" t="s">
         <v>22</v>
       </c>
       <c r="J214" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="K214" t="s"/>
       <c r="L214" s="2" t="n">
@@ -10024,7 +10054,7 @@
         <v>19</v>
       </c>
       <c r="P214" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="215" spans="1:16">
@@ -10042,13 +10072,13 @@
       <c r="F215" t="s"/>
       <c r="G215" t="s"/>
       <c r="H215" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="I215" t="s">
         <v>22</v>
       </c>
       <c r="J215" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="K215" t="s"/>
       <c r="L215" s="2" t="n">
@@ -10062,7 +10092,7 @@
         <v>19</v>
       </c>
       <c r="P215" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="216" spans="1:16">
@@ -10080,13 +10110,13 @@
       <c r="F216" t="s"/>
       <c r="G216" t="s"/>
       <c r="H216" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="I216" t="s">
         <v>22</v>
       </c>
       <c r="J216" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="K216" t="s"/>
       <c r="L216" s="2" t="n">
@@ -10100,7 +10130,7 @@
         <v>19</v>
       </c>
       <c r="P216" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="217" spans="1:16">
@@ -10118,13 +10148,13 @@
       <c r="F217" t="s"/>
       <c r="G217" t="s"/>
       <c r="H217" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="I217" t="s">
         <v>22</v>
       </c>
       <c r="J217" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="K217" t="s"/>
       <c r="L217" s="2" t="n">
@@ -10138,7 +10168,7 @@
         <v>19</v>
       </c>
       <c r="P217" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="218" spans="1:16">
@@ -10156,13 +10186,13 @@
       <c r="F218" t="s"/>
       <c r="G218" t="s"/>
       <c r="H218" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="I218" t="s">
         <v>22</v>
       </c>
       <c r="J218" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="K218" t="s"/>
       <c r="L218" s="2" t="n">
@@ -10176,7 +10206,7 @@
         <v>19</v>
       </c>
       <c r="P218" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="219" spans="1:16">
@@ -10194,13 +10224,13 @@
       <c r="F219" t="s"/>
       <c r="G219" t="s"/>
       <c r="H219" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="I219" t="s">
         <v>22</v>
       </c>
       <c r="J219" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K219" t="s"/>
       <c r="L219" s="2" t="n">
@@ -10214,7 +10244,7 @@
         <v>19</v>
       </c>
       <c r="P219" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="220" spans="1:16">
@@ -10232,13 +10262,13 @@
       <c r="F220" t="s"/>
       <c r="G220" t="s"/>
       <c r="H220" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="I220" t="s">
         <v>22</v>
       </c>
       <c r="J220" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K220" t="s"/>
       <c r="L220" s="2" t="n">
@@ -10252,7 +10282,7 @@
         <v>19</v>
       </c>
       <c r="P220" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="221" spans="1:16">
@@ -10270,13 +10300,13 @@
       <c r="F221" t="s"/>
       <c r="G221" t="s"/>
       <c r="H221" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="I221" t="s">
         <v>22</v>
       </c>
       <c r="J221" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="K221" t="s"/>
       <c r="L221" s="2" t="n">
@@ -10290,7 +10320,7 @@
         <v>19</v>
       </c>
       <c r="P221" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="222" spans="1:16">
@@ -10308,13 +10338,13 @@
       <c r="F222" t="s"/>
       <c r="G222" t="s"/>
       <c r="H222" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="I222" t="s">
         <v>22</v>
       </c>
       <c r="J222" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="K222" t="s"/>
       <c r="L222" s="2" t="n">
@@ -10328,7 +10358,7 @@
         <v>19</v>
       </c>
       <c r="P222" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="223" spans="1:16">
@@ -10346,13 +10376,13 @@
       <c r="F223" t="s"/>
       <c r="G223" t="s"/>
       <c r="H223" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="I223" t="s">
         <v>22</v>
       </c>
       <c r="J223" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="K223" t="s"/>
       <c r="L223" s="2" t="n">
@@ -10366,7 +10396,7 @@
         <v>19</v>
       </c>
       <c r="P223" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="224" spans="1:16">
@@ -10384,13 +10414,13 @@
       <c r="F224" t="s"/>
       <c r="G224" t="s"/>
       <c r="H224" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="I224" t="s">
         <v>22</v>
       </c>
       <c r="J224" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="K224" t="s"/>
       <c r="L224" s="2" t="n">
@@ -10404,7 +10434,7 @@
         <v>19</v>
       </c>
       <c r="P224" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="225" spans="1:16">
@@ -10422,13 +10452,13 @@
       <c r="F225" t="s"/>
       <c r="G225" t="s"/>
       <c r="H225" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="I225" t="s">
         <v>22</v>
       </c>
       <c r="J225" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="K225" t="s"/>
       <c r="L225" s="2" t="n">
@@ -10442,7 +10472,7 @@
         <v>19</v>
       </c>
       <c r="P225" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="226" spans="1:16">
@@ -10460,13 +10490,13 @@
       <c r="F226" t="s"/>
       <c r="G226" t="s"/>
       <c r="H226" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="I226" t="s">
         <v>22</v>
       </c>
       <c r="J226" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="K226" t="s"/>
       <c r="L226" s="2" t="n">
@@ -10480,7 +10510,7 @@
         <v>19</v>
       </c>
       <c r="P226" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="227" spans="1:16">
@@ -10498,13 +10528,13 @@
       <c r="F227" t="s"/>
       <c r="G227" t="s"/>
       <c r="H227" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="I227" t="s">
         <v>22</v>
       </c>
       <c r="J227" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="K227" t="s"/>
       <c r="L227" s="2" t="n">
@@ -10518,7 +10548,7 @@
         <v>19</v>
       </c>
       <c r="P227" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="228" spans="1:16">
@@ -10536,13 +10566,13 @@
       <c r="F228" t="s"/>
       <c r="G228" t="s"/>
       <c r="H228" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="I228" t="s">
         <v>22</v>
       </c>
       <c r="J228" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="K228" t="s"/>
       <c r="L228" s="2" t="n">
@@ -10556,7 +10586,7 @@
         <v>19</v>
       </c>
       <c r="P228" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="229" spans="1:16">
@@ -10574,13 +10604,13 @@
       <c r="F229" t="s"/>
       <c r="G229" t="s"/>
       <c r="H229" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="I229" t="s">
         <v>22</v>
       </c>
       <c r="J229" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="K229" t="s"/>
       <c r="L229" s="2" t="n">
@@ -10594,7 +10624,7 @@
         <v>19</v>
       </c>
       <c r="P229" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="230" spans="1:16">
@@ -10612,13 +10642,13 @@
       <c r="F230" t="s"/>
       <c r="G230" t="s"/>
       <c r="H230" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="I230" t="s">
         <v>22</v>
       </c>
       <c r="J230" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="K230" t="s"/>
       <c r="L230" s="2" t="n">
@@ -10632,7 +10662,7 @@
         <v>19</v>
       </c>
       <c r="P230" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="231" spans="1:16">
@@ -10650,13 +10680,13 @@
       <c r="F231" t="s"/>
       <c r="G231" t="s"/>
       <c r="H231" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="I231" t="s">
         <v>22</v>
       </c>
       <c r="J231" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="K231" t="s"/>
       <c r="L231" s="2" t="n">
@@ -10670,7 +10700,7 @@
         <v>19</v>
       </c>
       <c r="P231" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="232" spans="1:16">
@@ -10688,13 +10718,13 @@
       <c r="F232" t="s"/>
       <c r="G232" t="s"/>
       <c r="H232" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="I232" t="s">
         <v>22</v>
       </c>
       <c r="J232" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="K232" t="s"/>
       <c r="L232" s="2" t="n">
@@ -10708,7 +10738,7 @@
         <v>19</v>
       </c>
       <c r="P232" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="233" spans="1:16">
@@ -10726,13 +10756,13 @@
       <c r="F233" t="s"/>
       <c r="G233" t="s"/>
       <c r="H233" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="I233" t="s">
         <v>22</v>
       </c>
       <c r="J233" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="K233" t="s"/>
       <c r="L233" s="2" t="n">
@@ -10746,7 +10776,7 @@
         <v>19</v>
       </c>
       <c r="P233" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="234" spans="1:16">
@@ -10764,13 +10794,13 @@
       <c r="F234" t="s"/>
       <c r="G234" t="s"/>
       <c r="H234" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="I234" t="s">
         <v>22</v>
       </c>
       <c r="J234" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="K234" t="s"/>
       <c r="L234" s="2" t="n">
@@ -10784,7 +10814,7 @@
         <v>19</v>
       </c>
       <c r="P234" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="235" spans="1:16">
@@ -10802,13 +10832,13 @@
       <c r="F235" t="s"/>
       <c r="G235" t="s"/>
       <c r="H235" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="I235" t="s">
         <v>22</v>
       </c>
       <c r="J235" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="K235" t="s"/>
       <c r="L235" s="2" t="n">
@@ -10822,7 +10852,7 @@
         <v>19</v>
       </c>
       <c r="P235" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="236" spans="1:16">
@@ -10840,13 +10870,13 @@
       <c r="F236" t="s"/>
       <c r="G236" t="s"/>
       <c r="H236" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="I236" t="s">
         <v>22</v>
       </c>
       <c r="J236" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="K236" t="s"/>
       <c r="L236" s="2" t="n">
@@ -10860,7 +10890,7 @@
         <v>19</v>
       </c>
       <c r="P236" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="237" spans="1:16">
@@ -10878,13 +10908,13 @@
       <c r="F237" t="s"/>
       <c r="G237" t="s"/>
       <c r="H237" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I237" t="s">
         <v>22</v>
       </c>
       <c r="J237" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="K237" t="s"/>
       <c r="L237" s="2" t="n">
@@ -10898,7 +10928,7 @@
         <v>19</v>
       </c>
       <c r="P237" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="238" spans="1:16">
@@ -10916,13 +10946,13 @@
       <c r="F238" t="s"/>
       <c r="G238" t="s"/>
       <c r="H238" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="I238" t="s">
         <v>22</v>
       </c>
       <c r="J238" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="K238" t="s"/>
       <c r="L238" s="2" t="n">
@@ -10936,7 +10966,7 @@
         <v>19</v>
       </c>
       <c r="P238" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="239" spans="1:16">
@@ -10954,13 +10984,13 @@
       <c r="F239" t="s"/>
       <c r="G239" t="s"/>
       <c r="H239" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="I239" t="s">
         <v>22</v>
       </c>
       <c r="J239" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K239" t="s"/>
       <c r="L239" s="2" t="n">
@@ -10974,7 +11004,7 @@
         <v>19</v>
       </c>
       <c r="P239" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="240" spans="1:16">
@@ -10992,13 +11022,13 @@
       <c r="F240" t="s"/>
       <c r="G240" t="s"/>
       <c r="H240" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="I240" t="s">
         <v>22</v>
       </c>
       <c r="J240" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="K240" t="s"/>
       <c r="L240" s="2" t="n">
@@ -11012,7 +11042,7 @@
         <v>19</v>
       </c>
       <c r="P240" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="241" spans="1:16">
@@ -11030,13 +11060,13 @@
       <c r="F241" t="s"/>
       <c r="G241" t="s"/>
       <c r="H241" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="I241" t="s">
         <v>22</v>
       </c>
       <c r="J241" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="K241" t="s"/>
       <c r="L241" s="2" t="n">
@@ -11050,7 +11080,7 @@
         <v>19</v>
       </c>
       <c r="P241" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="242" spans="1:16">
@@ -11068,13 +11098,13 @@
       <c r="F242" t="s"/>
       <c r="G242" t="s"/>
       <c r="H242" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="I242" t="s">
         <v>22</v>
       </c>
       <c r="J242" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="K242" t="s"/>
       <c r="L242" s="2" t="n">
@@ -11088,7 +11118,7 @@
         <v>19</v>
       </c>
       <c r="P242" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="243" spans="1:16">
@@ -11106,13 +11136,13 @@
       <c r="F243" t="s"/>
       <c r="G243" t="s"/>
       <c r="H243" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="I243" t="s">
         <v>22</v>
       </c>
       <c r="J243" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="K243" t="s"/>
       <c r="L243" s="2" t="n">
@@ -11126,7 +11156,7 @@
         <v>19</v>
       </c>
       <c r="P243" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="244" spans="1:16">
@@ -11144,13 +11174,13 @@
       <c r="F244" t="s"/>
       <c r="G244" t="s"/>
       <c r="H244" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="I244" t="s">
         <v>22</v>
       </c>
       <c r="J244" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K244" t="s"/>
       <c r="L244" s="2" t="n">
@@ -11164,7 +11194,7 @@
         <v>19</v>
       </c>
       <c r="P244" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="245" spans="1:16">
@@ -11182,13 +11212,13 @@
       <c r="F245" t="s"/>
       <c r="G245" t="s"/>
       <c r="H245" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="I245" t="s">
         <v>22</v>
       </c>
       <c r="J245" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K245" t="s"/>
       <c r="L245" s="2" t="n">
@@ -11202,7 +11232,7 @@
         <v>19</v>
       </c>
       <c r="P245" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="246" spans="1:16">
@@ -11220,13 +11250,13 @@
       <c r="F246" t="s"/>
       <c r="G246" t="s"/>
       <c r="H246" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="I246" t="s">
         <v>22</v>
       </c>
       <c r="J246" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="K246" t="s"/>
       <c r="L246" s="2" t="n">
@@ -11240,7 +11270,7 @@
         <v>19</v>
       </c>
       <c r="P246" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="247" spans="1:16">
@@ -11258,13 +11288,13 @@
       <c r="F247" t="s"/>
       <c r="G247" t="s"/>
       <c r="H247" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="I247" t="s">
         <v>22</v>
       </c>
       <c r="J247" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="K247" t="s"/>
       <c r="L247" s="2" t="n">
@@ -11278,7 +11308,7 @@
         <v>19</v>
       </c>
       <c r="P247" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="248" spans="1:16">
@@ -11296,13 +11326,13 @@
       <c r="F248" t="s"/>
       <c r="G248" t="s"/>
       <c r="H248" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="I248" t="s">
         <v>22</v>
       </c>
       <c r="J248" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="K248" t="s"/>
       <c r="L248" s="2" t="n">
@@ -11316,7 +11346,7 @@
         <v>19</v>
       </c>
       <c r="P248" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="249" spans="1:16">
@@ -11334,13 +11364,13 @@
       <c r="F249" t="s"/>
       <c r="G249" t="s"/>
       <c r="H249" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="I249" t="s">
         <v>22</v>
       </c>
       <c r="J249" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="K249" t="s"/>
       <c r="L249" s="2" t="n">
@@ -11354,7 +11384,7 @@
         <v>19</v>
       </c>
       <c r="P249" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="250" spans="1:16">
@@ -11372,13 +11402,13 @@
       <c r="F250" t="s"/>
       <c r="G250" t="s"/>
       <c r="H250" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="I250" t="s">
         <v>22</v>
       </c>
       <c r="J250" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="K250" t="s"/>
       <c r="L250" s="2" t="n">
@@ -11392,7 +11422,7 @@
         <v>19</v>
       </c>
       <c r="P250" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="251" spans="1:16">
@@ -11410,13 +11440,13 @@
       <c r="F251" t="s"/>
       <c r="G251" t="s"/>
       <c r="H251" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="I251" t="s">
         <v>22</v>
       </c>
       <c r="J251" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="K251" t="s"/>
       <c r="L251" s="2" t="n">
@@ -11430,7 +11460,7 @@
         <v>19</v>
       </c>
       <c r="P251" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="252" spans="1:16">
@@ -11448,13 +11478,13 @@
       <c r="F252" t="s"/>
       <c r="G252" t="s"/>
       <c r="H252" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="I252" t="s">
         <v>22</v>
       </c>
       <c r="J252" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="K252" t="s"/>
       <c r="L252" s="2" t="n">
@@ -11468,7 +11498,7 @@
         <v>19</v>
       </c>
       <c r="P252" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="253" spans="1:16">
@@ -11486,13 +11516,13 @@
       <c r="F253" t="s"/>
       <c r="G253" t="s"/>
       <c r="H253" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="I253" t="s">
         <v>22</v>
       </c>
       <c r="J253" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="K253" t="s"/>
       <c r="L253" s="2" t="n">
@@ -11506,7 +11536,7 @@
         <v>19</v>
       </c>
       <c r="P253" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="254" spans="1:16">
@@ -11524,13 +11554,13 @@
       <c r="F254" t="s"/>
       <c r="G254" t="s"/>
       <c r="H254" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="I254" t="s">
         <v>22</v>
       </c>
       <c r="J254" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="K254" t="s"/>
       <c r="L254" s="2" t="n">
@@ -11544,7 +11574,7 @@
         <v>19</v>
       </c>
       <c r="P254" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="255" spans="1:16">
@@ -11562,13 +11592,13 @@
       <c r="F255" t="s"/>
       <c r="G255" t="s"/>
       <c r="H255" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="I255" t="s">
         <v>22</v>
       </c>
       <c r="J255" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="K255" t="s"/>
       <c r="L255" s="2" t="n">
@@ -11582,7 +11612,7 @@
         <v>19</v>
       </c>
       <c r="P255" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="256" spans="1:16">
@@ -11600,13 +11630,13 @@
       <c r="F256" t="s"/>
       <c r="G256" t="s"/>
       <c r="H256" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="I256" t="s">
         <v>22</v>
       </c>
       <c r="J256" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="K256" t="s"/>
       <c r="L256" s="2" t="n">
@@ -11620,7 +11650,7 @@
         <v>19</v>
       </c>
       <c r="P256" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="257" spans="1:16">
@@ -11638,13 +11668,13 @@
       <c r="F257" t="s"/>
       <c r="G257" t="s"/>
       <c r="H257" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="I257" t="s">
         <v>22</v>
       </c>
       <c r="J257" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="K257" t="s"/>
       <c r="L257" s="2" t="n">
@@ -11658,7 +11688,7 @@
         <v>19</v>
       </c>
       <c r="P257" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="258" spans="1:16">
@@ -11676,13 +11706,13 @@
       <c r="F258" t="s"/>
       <c r="G258" t="s"/>
       <c r="H258" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="I258" t="s">
         <v>22</v>
       </c>
       <c r="J258" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="K258" t="s"/>
       <c r="L258" s="2" t="n">
@@ -11696,7 +11726,7 @@
         <v>19</v>
       </c>
       <c r="P258" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="259" spans="1:16">
@@ -11714,13 +11744,13 @@
       <c r="F259" t="s"/>
       <c r="G259" t="s"/>
       <c r="H259" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="I259" t="s">
         <v>22</v>
       </c>
       <c r="J259" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="K259" t="s"/>
       <c r="L259" s="2" t="n">
@@ -11734,7 +11764,273 @@
         <v>19</v>
       </c>
       <c r="P259" t="s">
-        <v>273</v>
+        <v>277</v>
+      </c>
+    </row>
+    <row r="260" spans="1:16">
+      <c r="A260" t="s">
+        <v>16</v>
+      </c>
+      <c r="B260" t="n">
+        <v>259</v>
+      </c>
+      <c r="C260" s="2" t="n">
+        <v>2958465</v>
+      </c>
+      <c r="D260" t="s"/>
+      <c r="E260" t="s"/>
+      <c r="F260" t="s"/>
+      <c r="G260" t="s"/>
+      <c r="H260" t="s">
+        <v>332</v>
+      </c>
+      <c r="I260" t="s">
+        <v>22</v>
+      </c>
+      <c r="J260" t="s">
+        <v>332</v>
+      </c>
+      <c r="K260" t="s"/>
+      <c r="L260" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="s"/>
+      <c r="N260" t="s">
+        <v>21</v>
+      </c>
+      <c r="O260" t="s">
+        <v>19</v>
+      </c>
+      <c r="P260" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="261" spans="1:16">
+      <c r="A261" t="s">
+        <v>16</v>
+      </c>
+      <c r="B261" t="n">
+        <v>260</v>
+      </c>
+      <c r="C261" s="2" t="n">
+        <v>2958465</v>
+      </c>
+      <c r="D261" t="s"/>
+      <c r="E261" t="s"/>
+      <c r="F261" t="s"/>
+      <c r="G261" t="s"/>
+      <c r="H261" t="s">
+        <v>333</v>
+      </c>
+      <c r="I261" t="s">
+        <v>22</v>
+      </c>
+      <c r="J261" t="s">
+        <v>333</v>
+      </c>
+      <c r="K261" t="s"/>
+      <c r="L261" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="s"/>
+      <c r="N261" t="s">
+        <v>21</v>
+      </c>
+      <c r="O261" t="s">
+        <v>19</v>
+      </c>
+      <c r="P261" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="262" spans="1:16">
+      <c r="A262" t="s">
+        <v>16</v>
+      </c>
+      <c r="B262" t="n">
+        <v>261</v>
+      </c>
+      <c r="C262" s="2" t="n">
+        <v>2958465</v>
+      </c>
+      <c r="D262" t="s"/>
+      <c r="E262" t="s"/>
+      <c r="F262" t="s"/>
+      <c r="G262" t="s"/>
+      <c r="H262" t="s">
+        <v>334</v>
+      </c>
+      <c r="I262" t="s">
+        <v>22</v>
+      </c>
+      <c r="J262" t="s">
+        <v>334</v>
+      </c>
+      <c r="K262" t="s"/>
+      <c r="L262" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="s"/>
+      <c r="N262" t="s">
+        <v>21</v>
+      </c>
+      <c r="O262" t="s">
+        <v>19</v>
+      </c>
+      <c r="P262" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="263" spans="1:16">
+      <c r="A263" t="s">
+        <v>16</v>
+      </c>
+      <c r="B263" t="n">
+        <v>262</v>
+      </c>
+      <c r="C263" s="2" t="n">
+        <v>2958465</v>
+      </c>
+      <c r="D263" t="s"/>
+      <c r="E263" t="s"/>
+      <c r="F263" t="s"/>
+      <c r="G263" t="s"/>
+      <c r="H263" t="s">
+        <v>335</v>
+      </c>
+      <c r="I263" t="s">
+        <v>22</v>
+      </c>
+      <c r="J263" t="s">
+        <v>335</v>
+      </c>
+      <c r="K263" t="s"/>
+      <c r="L263" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="s"/>
+      <c r="N263" t="s">
+        <v>21</v>
+      </c>
+      <c r="O263" t="s">
+        <v>19</v>
+      </c>
+      <c r="P263" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="264" spans="1:16">
+      <c r="A264" t="s">
+        <v>16</v>
+      </c>
+      <c r="B264" t="n">
+        <v>263</v>
+      </c>
+      <c r="C264" s="2" t="n">
+        <v>2958465</v>
+      </c>
+      <c r="D264" t="s"/>
+      <c r="E264" t="s"/>
+      <c r="F264" t="s"/>
+      <c r="G264" t="s"/>
+      <c r="H264" t="s">
+        <v>336</v>
+      </c>
+      <c r="I264" t="s">
+        <v>22</v>
+      </c>
+      <c r="J264" t="s">
+        <v>336</v>
+      </c>
+      <c r="K264" t="s"/>
+      <c r="L264" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="s"/>
+      <c r="N264" t="s">
+        <v>21</v>
+      </c>
+      <c r="O264" t="s">
+        <v>19</v>
+      </c>
+      <c r="P264" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="265" spans="1:16">
+      <c r="A265" t="s">
+        <v>16</v>
+      </c>
+      <c r="B265" t="n">
+        <v>264</v>
+      </c>
+      <c r="C265" s="2" t="n">
+        <v>2958465</v>
+      </c>
+      <c r="D265" t="s"/>
+      <c r="E265" t="s"/>
+      <c r="F265" t="s"/>
+      <c r="G265" t="s"/>
+      <c r="H265" t="s">
+        <v>337</v>
+      </c>
+      <c r="I265" t="s">
+        <v>22</v>
+      </c>
+      <c r="J265" t="s">
+        <v>337</v>
+      </c>
+      <c r="K265" t="s"/>
+      <c r="L265" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="s"/>
+      <c r="N265" t="s">
+        <v>21</v>
+      </c>
+      <c r="O265" t="s">
+        <v>19</v>
+      </c>
+      <c r="P265" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="266" spans="1:16">
+      <c r="A266" t="s">
+        <v>16</v>
+      </c>
+      <c r="B266" t="n">
+        <v>265</v>
+      </c>
+      <c r="C266" s="2" t="n">
+        <v>2958465</v>
+      </c>
+      <c r="D266" t="s"/>
+      <c r="E266" t="s"/>
+      <c r="F266" t="s"/>
+      <c r="G266" t="s"/>
+      <c r="H266" t="s">
+        <v>338</v>
+      </c>
+      <c r="I266" t="s">
+        <v>22</v>
+      </c>
+      <c r="J266" t="s">
+        <v>338</v>
+      </c>
+      <c r="K266" t="s"/>
+      <c r="L266" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="s"/>
+      <c r="N266" t="s">
+        <v>21</v>
+      </c>
+      <c r="O266" t="s">
+        <v>19</v>
+      </c>
+      <c r="P266" t="s">
+        <v>277</v>
       </c>
     </row>
   </sheetData>
